--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\plafonnage-finitions\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\platres-et-enduits\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08AEB2C-6E7B-4369-85F5-2D5619E7125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB371EA1-203D-4844-8CE0-72E451A2C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="284">
   <si>
     <t>path</t>
   </si>
@@ -470,12 +470,6 @@
     <t>71021005</t>
   </si>
   <si>
-    <t>71021006</t>
-  </si>
-  <si>
-    <t>71021008</t>
-  </si>
-  <si>
     <t>Toupret bande à joint armée</t>
   </si>
   <si>
@@ -500,12 +494,6 @@
     <t>Rl armature alu 30m</t>
   </si>
   <si>
-    <t>HPX easymask crepe 16mx2.70m</t>
-  </si>
-  <si>
-    <t>HPX easymask crepe 33mx1.10m</t>
-  </si>
-  <si>
     <t>62710370</t>
   </si>
   <si>
@@ -825,12 +813,6 @@
   </si>
   <si>
     <t>30m</t>
-  </si>
-  <si>
-    <t>16mmx2,70m</t>
-  </si>
-  <si>
-    <t>33mmx1,10m</t>
   </si>
   <si>
     <t>3,9x25-1000pcs</t>
@@ -915,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +932,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1017,10 +1007,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1086,8 +1077,10 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1420,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
-  <dimension ref="A1:G450"/>
+  <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,7 +1427,7 @@
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1464,7 +1457,7 @@
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3">
         <v>24.26</v>
@@ -1482,7 +1475,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="3">
         <v>23.1</v>
@@ -1500,7 +1493,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D4" s="3">
         <v>7.8</v>
@@ -1518,7 +1511,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" s="3">
         <v>7.51</v>
@@ -1536,7 +1529,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D6" s="3">
         <v>17.16</v>
@@ -1554,7 +1547,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3">
         <v>16.5</v>
@@ -1572,7 +1565,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D8" s="3">
         <v>8.4499999999999993</v>
@@ -1590,7 +1583,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D9" s="3">
         <v>30.060000000000002</v>
@@ -1608,7 +1601,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" s="3">
         <v>32.44</v>
@@ -1626,7 +1619,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D11" s="3">
         <v>8.86</v>
@@ -1644,7 +1637,7 @@
         <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D12" s="3">
         <v>19.02</v>
@@ -1662,7 +1655,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D13" s="3">
         <v>51.44</v>
@@ -1680,7 +1673,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D14" s="3">
         <v>11.58</v>
@@ -1698,7 +1691,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3">
         <v>35.56</v>
@@ -1716,7 +1709,7 @@
         <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D16" s="3">
         <v>89.14</v>
@@ -1734,7 +1727,7 @@
         <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D17" s="3">
         <v>24.32</v>
@@ -1752,7 +1745,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D18" s="3">
         <v>31.240000000000002</v>
@@ -1770,7 +1763,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3">
         <v>28.82</v>
@@ -1788,7 +1781,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D20" s="3">
         <v>72.710000000000008</v>
@@ -1806,7 +1799,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D21" s="3">
         <v>9.64</v>
@@ -1824,7 +1817,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D22" s="3">
         <v>23.8</v>
@@ -1842,7 +1835,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D23" s="3">
         <v>35.68</v>
@@ -1860,7 +1853,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3">
         <v>18.22</v>
@@ -1878,7 +1871,7 @@
         <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3">
         <v>18.150000000000002</v>
@@ -1896,7 +1889,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D26" s="3">
         <v>15.32</v>
@@ -1914,7 +1907,7 @@
         <v>94</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D27" s="3">
         <v>29.5</v>
@@ -1932,7 +1925,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D28" s="3">
         <v>44</v>
@@ -1950,7 +1943,7 @@
         <v>96</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D29" s="3">
         <v>64</v>
@@ -1968,7 +1961,7 @@
         <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D30" s="3">
         <v>18.37</v>
@@ -1986,7 +1979,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D31" s="3">
         <v>39.57</v>
@@ -2004,7 +1997,7 @@
         <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D32" s="3">
         <v>44.78</v>
@@ -2022,7 +2015,7 @@
         <v>100</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D33" s="3">
         <v>43.74</v>
@@ -2040,7 +2033,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D34" s="3">
         <v>25.22</v>
@@ -2058,7 +2051,7 @@
         <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="3">
         <v>52.01</v>
@@ -2076,7 +2069,7 @@
         <v>103</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D36" s="3">
         <v>24.32</v>
@@ -2094,7 +2087,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D37" s="3">
         <v>14.19</v>
@@ -2112,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D38" s="3">
         <v>9.57</v>
@@ -2130,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3">
         <v>13.65</v>
@@ -2148,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D40" s="3">
         <v>12.27</v>
@@ -2166,7 +2159,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D41" s="3">
         <v>18.21</v>
@@ -2184,7 +2177,7 @@
         <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D42" s="3">
         <v>15.540000000000001</v>
@@ -2202,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D43" s="3">
         <v>20.76</v>
@@ -2220,7 +2213,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3">
         <v>31.470000000000002</v>
@@ -2238,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D45" s="3">
         <v>21.89</v>
@@ -2256,7 +2249,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D46" s="3">
         <v>6.6400000000000006</v>
@@ -2274,7 +2267,7 @@
         <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D47" s="3">
         <v>5.47</v>
@@ -2292,7 +2285,7 @@
         <v>121</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D48" s="3">
         <v>4.33</v>
@@ -2310,7 +2303,7 @@
         <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D49" s="3">
         <v>4.84</v>
@@ -2328,7 +2321,7 @@
         <v>123</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D50" s="3">
         <v>5.09</v>
@@ -2346,7 +2339,7 @@
         <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D51" s="3">
         <v>5.26</v>
@@ -2363,7 +2356,7 @@
         <v>125</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D52" s="3">
         <v>5.09</v>
@@ -2380,7 +2373,7 @@
         <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D53" s="3">
         <v>5.26</v>
@@ -2397,7 +2390,7 @@
         <v>127</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D54" s="3">
         <v>5.13</v>
@@ -2415,7 +2408,7 @@
         <v>128</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3">
         <v>5.09</v>
@@ -2433,7 +2426,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D56" s="3">
         <v>9.0400000000000009</v>
@@ -2451,7 +2444,7 @@
         <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D57" s="3">
         <v>9.0400000000000009</v>
@@ -2469,7 +2462,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D58" s="3">
         <v>7.25</v>
@@ -2487,7 +2480,7 @@
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D59" s="3">
         <v>8.16</v>
@@ -2505,7 +2498,7 @@
         <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D60" s="3">
         <v>7.71</v>
@@ -2523,7 +2516,7 @@
         <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D61" s="3">
         <v>8.4499999999999993</v>
@@ -2537,11 +2530,11 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D62" s="3">
         <v>9.33</v>
@@ -2556,10 +2549,10 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D63" s="3">
         <v>23.900000000000002</v>
@@ -2573,11 +2566,11 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="2" t="s">
-        <v>147</v>
+      <c r="B64" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D64" s="3">
         <v>10.9</v>
@@ -2589,13 +2582,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D65" s="3">
         <v>12.06</v>
@@ -2607,13 +2600,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D66" s="3">
         <v>1.78</v>
@@ -2625,13 +2618,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D67" s="3">
         <v>5.48</v>
@@ -2643,13 +2636,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="2" t="s">
-        <v>151</v>
+      <c r="B68" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D68" s="3">
         <v>5</v>
@@ -2661,13 +2654,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D69" s="3">
         <v>5.49</v>
@@ -2679,13 +2672,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="2" t="s">
-        <v>153</v>
+      <c r="B70" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3">
         <v>19.41</v>
@@ -2697,379 +2690,380 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D71" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>144</v>
+        <v>25.8</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="F71" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D72" s="3">
-        <v>7.19</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>145</v>
+        <v>27.3</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="F72" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D73" s="3">
-        <v>25.8</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F73" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D74" s="3">
-        <v>27.3</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F74" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D75" s="3">
-        <v>40.119999999999997</v>
+        <v>22.05</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F75" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" s="3">
-        <v>16.170000000000002</v>
+        <v>25.810000000000002</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F76" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D77" s="3">
-        <v>22.05</v>
+        <v>13.07</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F77" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D78" s="3">
-        <v>25.810000000000002</v>
+        <v>3.15</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F78" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>271</v>
+        <v>194</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="D79" s="3">
-        <v>13.07</v>
+        <v>16.63</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F79" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>272</v>
+        <v>195</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D80" s="3">
-        <v>3.15</v>
+        <v>6.17</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F80" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D81" s="3">
-        <v>16.63</v>
+        <v>15.73</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F81" s="5">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D82" s="3">
-        <v>6.17</v>
+        <v>3.92</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F82" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D83" s="3">
-        <v>15.73</v>
+        <v>21.95</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F83" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D84" s="3">
-        <v>3.92</v>
+        <v>4.99</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D85" s="3">
-        <v>21.95</v>
+        <v>7.36</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F85" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D86" s="3">
-        <v>4.99</v>
+        <v>30.52</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D87" s="3">
-        <v>7.36</v>
+        <v>6.05</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F87" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D88" s="3">
-        <v>30.52</v>
+        <v>4.67</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="D89" s="3">
-        <v>6.05</v>
+        <v>15.58</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F89" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D90" s="3">
-        <v>4.67</v>
+        <v>18.63</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D91" s="3">
-        <v>15.58</v>
+        <v>10.99</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -3078,284 +3072,264 @@
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D92" s="3">
-        <v>18.63</v>
+        <v>22.97</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D93" s="3">
-        <v>10.99</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F93" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D94" s="3">
-        <v>22.97</v>
+        <v>12.83</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D95" s="3">
-        <v>18.150000000000002</v>
+        <v>42.25</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F95" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D96" s="3">
-        <v>12.83</v>
+        <v>17.38</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F96" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D97" s="3">
-        <v>42.25</v>
+        <v>27.18</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F97" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D98" s="3">
-        <v>17.38</v>
+        <v>34.51</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F98" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="3">
-        <v>27.18</v>
+        <v>42.57</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F99" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D100" s="3">
-        <v>34.51</v>
+        <v>21.68</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F100" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D101" s="3">
-        <v>42.57</v>
+        <v>24.78</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F101" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D102" s="3">
-        <v>21.68</v>
+        <v>16.63</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F102" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D103" s="3">
-        <v>24.78</v>
+        <v>19.14</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F103" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D104" s="3">
-        <v>16.63</v>
+        <v>33.01</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F104" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
-      <c r="B105" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D105" s="3">
-        <v>19.14</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F105" s="5">
-        <v>7</v>
-      </c>
+      <c r="C105" s="5"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D106" s="3">
-        <v>33.01</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F106" s="5">
-        <v>15</v>
-      </c>
+      <c r="C106" s="5"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="5"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="5"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="5"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="5"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
@@ -3377,17 +3351,15 @@
       <c r="A111" s="5"/>
       <c r="B111" s="11"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="13"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="11"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="13"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
@@ -3414,15 +3386,17 @@
       <c r="A116" s="5"/>
       <c r="B116" s="11"/>
       <c r="C116" s="5"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="5"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="11"/>
       <c r="C117" s="5"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="5"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
@@ -3442,11 +3416,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="B120" s="11"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="13"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
@@ -3458,10 +3431,11 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="5"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="5"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
@@ -3601,19 +3575,15 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
-      <c r="B140" s="11"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="13"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
-      <c r="B141" s="11"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="13"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
@@ -3659,15 +3629,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
+      <c r="B149" s="11"/>
       <c r="C149" s="5"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="5"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="5"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="5"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
@@ -3679,83 +3653,83 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="11"/>
+      <c r="B152" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="13"/>
+      <c r="D152" s="3">
+        <v>28.75</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
-      <c r="B153" s="11"/>
+      <c r="B153" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="13"/>
+      <c r="D153" s="3">
+        <v>58.82</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="3">
-        <v>28.75</v>
+        <v>23.490000000000002</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F154" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="3">
-        <v>58.82</v>
+        <v>59.9</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F155" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B156" s="11"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="3">
-        <v>23.490000000000002</v>
-      </c>
-      <c r="E156" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F156" s="5">
-        <v>12</v>
-      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="13"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
-      <c r="B157" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="B157" s="11"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="3">
-        <v>59.9</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F157" s="5">
-        <v>8</v>
-      </c>
+      <c r="D157" s="14"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
@@ -3767,19 +3741,15 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
-      <c r="B159" s="11"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="13"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="11"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="13"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
@@ -3795,22 +3765,26 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
+      <c r="B163" s="11"/>
       <c r="C163" s="5"/>
       <c r="E163" s="12"/>
       <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
+      <c r="B164" s="11"/>
       <c r="C164" s="5"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="5"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="13"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="11"/>
       <c r="C165" s="5"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="5"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="13"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
@@ -3926,22 +3900,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
-      <c r="B180" s="11"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="13"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
-      <c r="B181" s="11"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="13"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
+      <c r="B182" s="11"/>
       <c r="C182" s="5"/>
       <c r="E182" s="12"/>
       <c r="F182" s="5"/>
@@ -3954,7 +3925,6 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
-      <c r="B184" s="11"/>
       <c r="C184" s="5"/>
       <c r="E184" s="12"/>
       <c r="F184" s="5"/>
@@ -4147,6 +4117,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
+      <c r="B216" s="11"/>
       <c r="C216" s="5"/>
       <c r="E216" s="12"/>
       <c r="F216" s="5"/>
@@ -4172,16 +4143,9 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="5"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
@@ -4240,53 +4204,63 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
@@ -5801,29 +5775,13 @@
       <c r="F445" s="5"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="5"/>
-      <c r="B446" s="5"/>
-      <c r="C446" s="5"/>
-      <c r="D446" s="5"/>
-      <c r="E446" s="5"/>
-      <c r="F446" s="5"/>
+      <c r="A446" s="2"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A447" s="5"/>
-      <c r="B447" s="5"/>
-      <c r="C447" s="5"/>
-      <c r="D447" s="5"/>
-      <c r="E447" s="5"/>
-      <c r="F447" s="5"/>
+      <c r="A447" s="2"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="2"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\platres-et-enduits\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\platres-et-enduits\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB371EA1-203D-4844-8CE0-72E451A2C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B20B88-C298-4E7C-B45B-79196CF6197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="321">
   <si>
     <t>path</t>
   </si>
@@ -888,6 +888,117 @@
   </si>
   <si>
     <t>3,5x45-1000pcs</t>
+  </si>
+  <si>
+    <t>galerie/fibatape.png</t>
+  </si>
+  <si>
+    <t>galerie/gyplat.png</t>
+  </si>
+  <si>
+    <t>galerie/gyproc-wr-unique-25kg.png</t>
+  </si>
+  <si>
+    <t>galerie/gyproc-xpro.png</t>
+  </si>
+  <si>
+    <t>galerie/hpx-bande-de-joint-45m.png</t>
+  </si>
+  <si>
+    <t>17l</t>
+  </si>
+  <si>
+    <t>5Kg</t>
+  </si>
+  <si>
+    <t>20Kg</t>
+  </si>
+  <si>
+    <t>galerie/knauf-f2f.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-filler-pasta.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-fix-finish.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-goldban.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-mp75.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-perlfix-25kg.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-snelband-25kg.png</t>
+  </si>
+  <si>
+    <t>galerie/knauf-snellgips-4kg.png</t>
+  </si>
+  <si>
+    <t>galerie/plaque-platre-4AK.png</t>
+  </si>
+  <si>
+    <t>galerie/plaque-platre-hydro.png</t>
+  </si>
+  <si>
+    <t>galerie/plaque-platre-rf.png</t>
+  </si>
+  <si>
+    <t>galerie/plaque-platre.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-airspray-g-25kg.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-bande-a-joint-armee.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-bande-a-joint-papier-150m.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-durcisseur-1l.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-durcisseur-aerosol.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-fibacryl.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-fill-finish-60.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-fix-fill-joint-45.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-g.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-joint-finish.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-reboucheur.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-rouleau-a-enduire-180mm.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-tx120-saneo.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-tx140.png</t>
+  </si>
+  <si>
+    <t>galerie/vis-fibro-platre.png</t>
+  </si>
+  <si>
+    <t>galerie/vis-phosphatees-autof.png</t>
+  </si>
+  <si>
+    <t>galerie/vis-phosphatees-bande.png</t>
   </si>
 </sst>
 </file>
@@ -942,7 +1053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1011,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1078,6 +1195,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1415,13 +1538,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1470,7 +1593,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
@@ -1488,8 +1613,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1506,7 +1631,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
@@ -1524,7 +1649,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
@@ -1542,7 +1669,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
@@ -1560,7 +1689,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>75</v>
       </c>
@@ -1578,7 +1709,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1729,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
@@ -1722,7 +1857,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
@@ -1758,7 +1895,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
@@ -1776,7 +1915,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
@@ -1794,7 +1935,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
@@ -1812,8 +1955,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1830,8 +1973,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1848,8 +1991,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1866,8 +2009,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1884,7 +2027,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
@@ -1902,7 +2047,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
@@ -1920,7 +2067,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>95</v>
       </c>
@@ -1938,7 +2087,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
@@ -1992,7 +2143,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>99</v>
       </c>
@@ -2010,7 +2163,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
         <v>100</v>
       </c>
@@ -2082,7 +2235,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +2255,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2275,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2295,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="B40" s="16" t="s">
         <v>19</v>
       </c>
@@ -2154,7 +2315,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2335,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2355,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
@@ -2208,7 +2375,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
@@ -2226,7 +2395,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
@@ -2244,7 +2415,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
       </c>
@@ -2262,7 +2435,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>120</v>
       </c>
@@ -2280,7 +2455,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>121</v>
       </c>
@@ -2298,7 +2475,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>122</v>
       </c>
@@ -2316,7 +2495,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>123</v>
       </c>
@@ -2334,7 +2515,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2352,6 +2535,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>125</v>
       </c>
@@ -2369,6 +2555,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>126</v>
       </c>
@@ -2386,6 +2575,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
@@ -2403,7 +2595,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>128</v>
       </c>
@@ -2421,7 +2615,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>129</v>
       </c>
@@ -2439,7 +2635,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B57" s="2" t="s">
         <v>130</v>
       </c>
@@ -2457,7 +2655,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>131</v>
       </c>
@@ -2475,7 +2675,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
@@ -2493,7 +2695,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
@@ -2511,7 +2715,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="B61" s="2" t="s">
         <v>134</v>
       </c>
@@ -2529,7 +2735,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="B62" s="16" t="s">
         <v>135</v>
       </c>
@@ -2547,7 +2755,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>144</v>
       </c>
@@ -2565,8 +2775,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2583,7 +2795,9 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
@@ -2601,7 +2815,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
@@ -2619,7 +2835,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+      <c r="A67" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>148</v>
       </c>
@@ -2637,7 +2855,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="11" t="s">
         <v>149</v>
       </c>
@@ -2655,7 +2873,9 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>150</v>
       </c>
@@ -2673,7 +2893,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="11" t="s">
         <v>151</v>
       </c>
@@ -2691,7 +2911,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>186</v>
       </c>
@@ -2710,7 +2932,9 @@
       <c r="G71" s="23"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>187</v>
       </c>
@@ -2728,7 +2952,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>188</v>
       </c>
@@ -2746,7 +2972,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
+      <c r="A74" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>189</v>
       </c>
@@ -2764,7 +2992,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
@@ -2782,7 +3012,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>191</v>
       </c>
@@ -2800,7 +3032,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>192</v>
       </c>
@@ -2818,7 +3052,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>193</v>
       </c>
@@ -2836,7 +3072,9 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>194</v>
       </c>
@@ -2854,7 +3092,9 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>195</v>
       </c>
@@ -2872,7 +3112,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B81" s="2" t="s">
         <v>196</v>
       </c>
@@ -2890,7 +3132,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>197</v>
       </c>
@@ -2908,7 +3152,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B83" s="2" t="s">
         <v>198</v>
       </c>
@@ -2926,7 +3172,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>199</v>
       </c>
@@ -2944,7 +3192,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B85" s="2" t="s">
         <v>200</v>
       </c>
@@ -2962,7 +3212,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B86" s="2" t="s">
         <v>201</v>
       </c>
@@ -2980,7 +3232,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B87" s="2" t="s">
         <v>202</v>
       </c>
@@ -2998,7 +3252,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B88" s="2" t="s">
         <v>203</v>
       </c>
@@ -3016,7 +3272,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B89" s="2" t="s">
         <v>204</v>
       </c>
@@ -3034,7 +3292,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B90" s="2" t="s">
         <v>205</v>
       </c>
@@ -3052,7 +3312,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B91" s="2" t="s">
         <v>206</v>
       </c>
@@ -3070,7 +3332,9 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B92" s="2" t="s">
         <v>207</v>
       </c>
@@ -3088,7 +3352,9 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B93" s="2" t="s">
         <v>208</v>
       </c>
@@ -3106,7 +3372,9 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B94" s="2" t="s">
         <v>209</v>
       </c>
@@ -3124,7 +3392,9 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B95" s="2" t="s">
         <v>210</v>
       </c>
@@ -3142,7 +3412,9 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B96" s="2" t="s">
         <v>211</v>
       </c>
@@ -3160,7 +3432,9 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B97" s="2" t="s">
         <v>212</v>
       </c>
@@ -3178,7 +3452,9 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B98" s="2" t="s">
         <v>213</v>
       </c>
@@ -3196,7 +3472,9 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B99" s="2" t="s">
         <v>214</v>
       </c>
@@ -3214,7 +3492,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B100" s="2" t="s">
         <v>215</v>
       </c>
@@ -3232,7 +3512,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B101" s="2" t="s">
         <v>216</v>
       </c>
@@ -3250,7 +3532,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="B102" s="2" t="s">
         <v>217</v>
       </c>
@@ -3304,32 +3588,84 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="5"/>
+      <c r="A105" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="3">
+        <v>28.75</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="3">
+        <v>58.82</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="5">
+        <v>17</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="13"/>
+      <c r="A107" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D107" s="3">
+        <v>23.490000000000002</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="13"/>
+      <c r="A108" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" s="3">
+        <v>59.9</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\platres-et-enduits\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B20B88-C298-4E7C-B45B-79196CF6197C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD31C6-6962-43FB-96D6-0DB42F467C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="325">
   <si>
     <t>path</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Touprelex -4lt  (enduit allégé)</t>
   </si>
   <si>
-    <t>Touprelex -EJ3H 5 kg (joint placo fin)</t>
-  </si>
-  <si>
     <t>Toupret Fibarex 5kg  (enduit ext)</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
     <t>4,8x160-1000pcs</t>
   </si>
   <si>
-    <t>3,5x45-1000pcs</t>
-  </si>
-  <si>
     <t>galerie/fibatape.png</t>
   </si>
   <si>
@@ -999,6 +993,43 @@
   </si>
   <si>
     <t>galerie/vis-phosphatees-bande.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-fibarex.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-touprelex.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Touprelex -EJ3H 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kg (joint placo fin)</t>
+    </r>
+  </si>
+  <si>
+    <t>galerie/toupret-spray-anti-humidite.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-humi-block.png</t>
+  </si>
+  <si>
+    <t>Montage-rapide-3,5x25-1000pcs</t>
   </si>
 </sst>
 </file>
@@ -1539,14 +1570,14 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C103" sqref="C103:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -1575,12 +1606,14 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3">
         <v>24.26</v>
@@ -1594,13 +1627,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="3">
         <v>23.1</v>
@@ -1618,7 +1651,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3">
         <v>7.8</v>
@@ -1636,7 +1669,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="3">
         <v>7.51</v>
@@ -1650,13 +1683,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3">
         <v>17.16</v>
@@ -1670,13 +1703,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="3">
         <v>16.5</v>
@@ -1690,13 +1723,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3">
         <v>8.4499999999999993</v>
@@ -1710,13 +1743,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3">
         <v>30.060000000000002</v>
@@ -1730,13 +1763,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="3">
         <v>32.44</v>
@@ -1749,12 +1782,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="3">
         <v>8.86</v>
@@ -1767,12 +1800,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="3">
         <v>19.02</v>
@@ -1785,12 +1820,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="3">
         <v>51.44</v>
@@ -1803,12 +1840,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>321</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="3">
         <v>11.58</v>
@@ -1821,12 +1858,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="3">
         <v>35.56</v>
@@ -1839,12 +1878,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="3">
         <v>89.14</v>
@@ -1858,13 +1899,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="3">
         <v>24.32</v>
@@ -1877,12 +1918,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="3">
         <v>31.240000000000002</v>
@@ -1896,13 +1939,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3">
         <v>28.82</v>
@@ -1916,13 +1959,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="3">
         <v>72.710000000000008</v>
@@ -1936,13 +1979,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3">
         <v>9.64</v>
@@ -1957,10 +2000,10 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3">
         <v>23.8</v>
@@ -1975,10 +2018,10 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3">
         <v>35.68</v>
@@ -1993,10 +2036,10 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="3">
         <v>18.22</v>
@@ -2011,10 +2054,10 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3">
         <v>18.150000000000002</v>
@@ -2028,13 +2071,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3">
         <v>15.32</v>
@@ -2048,13 +2091,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="3">
         <v>29.5</v>
@@ -2068,13 +2111,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="3">
         <v>44</v>
@@ -2088,13 +2131,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" s="3">
         <v>64</v>
@@ -2107,12 +2150,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="3">
         <v>18.37</v>
@@ -2125,12 +2168,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" s="3">
         <v>39.57</v>
@@ -2144,13 +2187,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="3">
         <v>44.78</v>
@@ -2165,10 +2208,10 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="3">
         <v>43.74</v>
@@ -2181,12 +2224,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
-        <v>101</v>
+      <c r="A34" s="25"/>
+      <c r="B34" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="3">
         <v>25.22</v>
@@ -2199,12 +2242,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="2" t="s">
-        <v>102</v>
+      <c r="A35" s="25"/>
+      <c r="B35" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" s="3">
         <v>52.01</v>
@@ -2217,12 +2260,12 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
-        <v>103</v>
+      <c r="A36" s="25"/>
+      <c r="B36" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" s="3">
         <v>24.32</v>
@@ -2236,13 +2279,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3">
         <v>14.19</v>
@@ -2256,13 +2299,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D38" s="3">
         <v>9.57</v>
@@ -2276,13 +2319,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3">
         <v>13.65</v>
@@ -2296,13 +2339,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="3">
         <v>12.27</v>
@@ -2316,13 +2359,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D41" s="3">
         <v>18.21</v>
@@ -2336,13 +2379,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D42" s="3">
         <v>15.540000000000001</v>
@@ -2356,13 +2399,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D43" s="3">
         <v>20.76</v>
@@ -2376,13 +2419,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44" s="3">
         <v>31.470000000000002</v>
@@ -2396,13 +2439,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D45" s="3">
         <v>21.89</v>
@@ -2416,13 +2459,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" s="3">
         <v>6.6400000000000006</v>
@@ -2436,19 +2479,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" s="3">
         <v>5.47</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="5">
         <v>114.4</v>
@@ -2456,19 +2499,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="3">
         <v>4.33</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="5">
         <v>290.16000000000008</v>
@@ -2476,19 +2519,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" s="3">
         <v>4.84</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="5">
         <v>224.64000000000047</v>
@@ -2496,19 +2539,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D50" s="3">
         <v>5.09</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="5">
         <v>287.99999999999972</v>
@@ -2516,19 +2559,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D51" s="3">
         <v>5.26</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -2536,19 +2579,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" s="3">
         <v>5.09</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="5">
         <v>705.11999999999944</v>
@@ -2556,19 +2599,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D53" s="3">
         <v>5.26</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="5">
         <v>6.7199999999999758</v>
@@ -2576,19 +2619,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" s="3">
         <v>5.13</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -2596,19 +2639,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D55" s="3">
         <v>5.09</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="5">
         <v>335.40199999999822</v>
@@ -2616,19 +2659,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D56" s="3">
         <v>9.0400000000000009</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="5">
         <v>84.2399999999991</v>
@@ -2636,19 +2679,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D57" s="3">
         <v>9.0400000000000009</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="5">
         <v>156.00000000000091</v>
@@ -2656,19 +2699,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D58" s="3">
         <v>7.25</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -2676,19 +2719,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" s="3">
         <v>8.16</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="5">
         <v>-2.1316282072803006E-14</v>
@@ -2696,19 +2739,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="3">
         <v>7.71</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
@@ -2716,19 +2759,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D61" s="3">
         <v>8.4499999999999993</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" s="5">
         <v>156.00000000000011</v>
@@ -2736,19 +2779,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D62" s="3">
         <v>9.33</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
@@ -2756,19 +2799,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63" s="3">
         <v>23.900000000000002</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F63" s="5">
         <v>15</v>
@@ -2776,19 +2819,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D64" s="3">
         <v>10.9</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64" s="5">
         <v>3</v>
@@ -2796,19 +2839,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D65" s="3">
         <v>12.06</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
@@ -2816,19 +2859,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D66" s="3">
         <v>1.78</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F66" s="5">
         <v>16</v>
@@ -2836,19 +2879,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D67" s="3">
         <v>5.48</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" s="5">
         <v>25</v>
@@ -2857,16 +2900,16 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="25"/>
       <c r="B68" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" s="3">
         <v>5</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -2874,19 +2917,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69" s="3">
         <v>5.49</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F69" s="5">
         <v>3</v>
@@ -2895,16 +2938,16 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D70" s="3">
         <v>19.41</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
@@ -2912,19 +2955,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="3">
         <v>25.8</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F71" s="5">
         <v>4</v>
@@ -2933,19 +2976,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" s="3">
         <v>27.3</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -2953,19 +2996,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D73" s="3">
         <v>40.119999999999997</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F73" s="5">
         <v>5</v>
@@ -2973,19 +3016,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D74" s="3">
         <v>16.170000000000002</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F74" s="5">
         <v>10</v>
@@ -2993,19 +3036,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D75" s="3">
         <v>22.05</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" s="5">
         <v>5</v>
@@ -3013,19 +3056,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D76" s="3">
         <v>25.810000000000002</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F76" s="5">
         <v>6</v>
@@ -3033,19 +3076,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D77" s="3">
         <v>13.07</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F77" s="5">
         <v>13</v>
@@ -3053,19 +3096,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" s="3">
         <v>3.15</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78" s="5">
         <v>14</v>
@@ -3073,19 +3116,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D79" s="3">
         <v>16.63</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79" s="5">
         <v>36</v>
@@ -3093,19 +3136,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D80" s="3">
         <v>6.17</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F80" s="5">
         <v>2</v>
@@ -3113,19 +3156,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D81" s="3">
         <v>15.73</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F81" s="5">
         <v>10</v>
@@ -3133,19 +3176,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D82" s="3">
         <v>3.92</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82" s="5">
         <v>10</v>
@@ -3153,19 +3196,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D83" s="3">
         <v>21.95</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F83" s="5">
         <v>7</v>
@@ -3173,19 +3216,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D84" s="3">
         <v>4.99</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" s="5">
         <v>13</v>
@@ -3193,19 +3236,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D85" s="3">
         <v>7.36</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" s="5">
         <v>11</v>
@@ -3213,19 +3256,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D86" s="3">
         <v>30.52</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F86" s="5">
         <v>6</v>
@@ -3233,19 +3276,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D87" s="3">
         <v>6.05</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F87" s="5">
         <v>7</v>
@@ -3253,19 +3296,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D88" s="3">
         <v>4.67</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" s="5">
         <v>5</v>
@@ -3273,19 +3316,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="3">
         <v>15.58</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
@@ -3293,19 +3336,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D90" s="3">
         <v>18.63</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F90" s="5">
         <v>8</v>
@@ -3313,19 +3356,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="3">
         <v>10.99</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -3333,19 +3376,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="3">
         <v>22.97</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" s="5">
         <v>10</v>
@@ -3353,19 +3396,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" s="3">
         <v>18.150000000000002</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F93" s="5">
         <v>5</v>
@@ -3373,19 +3416,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="3">
         <v>12.83</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F94" s="5">
         <v>8</v>
@@ -3393,19 +3436,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95" s="3">
         <v>42.25</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F95" s="5">
         <v>11</v>
@@ -3413,19 +3456,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D96" s="3">
         <v>17.38</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F96" s="5">
         <v>3</v>
@@ -3433,19 +3476,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="3">
         <v>27.18</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F97" s="5">
         <v>4</v>
@@ -3453,19 +3496,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="3">
         <v>34.51</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F98" s="5">
         <v>7</v>
@@ -3473,19 +3516,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="3">
         <v>42.57</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F99" s="5">
         <v>7</v>
@@ -3493,19 +3536,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="3">
         <v>21.68</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F100" s="5">
         <v>6</v>
@@ -3513,19 +3556,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D101" s="3">
         <v>24.78</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" s="5">
         <v>4</v>
@@ -3533,55 +3576,59 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D102" s="3">
         <v>16.63</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="B103" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="D103" s="3">
         <v>19.14</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F103" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="B104" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D104" s="3">
         <v>33.01</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F104" s="5">
         <v>15</v>
@@ -3589,13 +3636,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D105" s="3">
         <v>28.75</v>
@@ -3609,13 +3656,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="3">
         <v>58.82</v>
@@ -3629,13 +3676,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D107" s="3">
         <v>23.490000000000002</v>
@@ -3649,13 +3696,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D108" s="3">
         <v>59.9</v>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\platres-et-enduits\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD31C6-6962-43FB-96D6-0DB42F467C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3A05A-8615-423D-B24B-745E6CC3C517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="326">
   <si>
     <t>path</t>
   </si>
@@ -1030,6 +1030,9 @@
   </si>
   <si>
     <t>Montage-rapide-3,5x25-1000pcs</t>
+  </si>
+  <si>
+    <t>Montage-rapide-3,5x45-1000pcs</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103:C104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3622,7 +3625,7 @@
         <v>218</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D104" s="3">
         <v>33.01</v>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\platres-et-enduits\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3A05A-8615-423D-B24B-745E6CC3C517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A489E4-36FD-449E-9EDE-2F9001742A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="327">
   <si>
     <t>path</t>
   </si>
@@ -1034,6 +1034,9 @@
   <si>
     <t>Montage-rapide-3,5x45-1000pcs</t>
   </si>
+  <si>
+    <t>galerie/vis-montage-rapide-pfs.png</t>
+  </si>
 </sst>
 </file>
 
@@ -1042,7 +1045,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1088,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1162,7 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1234,6 +1243,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,7 +1585,7 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,7 +3611,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>217</v>
@@ -3619,7 +3631,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>218</v>
@@ -3726,7 +3738,7 @@
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
+      <c r="A110" s="26"/>
       <c r="B110" s="11"/>
       <c r="C110" s="5"/>
       <c r="D110" s="14"/>
